--- a/datasets/2b - Imports.xlsx
+++ b/datasets/2b - Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E29B4-A4B4-4AC9-BDFF-97AAE3B7F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBF596-918D-4950-A50D-E09B791979CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -649,10 +649,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="topRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -708,7 +708,7 @@
     </row>
     <row r="4" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -795,13 +795,13 @@
         <v>60</v>
       </c>
       <c r="AD4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="AF4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6">
         <v>659.43299999999999</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B38" s="6">
         <v>21006.786009799998</v>

--- a/datasets/2b - Imports.xlsx
+++ b/datasets/2b - Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBF596-918D-4950-A50D-E09B791979CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E765D-4B29-47E7-A125-08F23D279975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>2014</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Russia</t>
   </si>
 </sst>
 </file>
@@ -649,10 +649,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="A39" sqref="A39"/>
+      <selection pane="topRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -664,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -708,7 +708,7 @@
     </row>
     <row r="4" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -786,22 +786,22 @@
         <v>56</v>
       </c>
       <c r="AA4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="AD4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="AF4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="6">
         <v>659.43299999999999</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="6">
         <v>2898.2980084000001</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="6">
         <v>21006.786009799998</v>

--- a/datasets/2b - Imports.xlsx
+++ b/datasets/2b - Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E765D-4B29-47E7-A125-08F23D279975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB5E617-23BE-447B-8848-5CDA657C1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t>2019</t>
   </si>
   <si>
-    <t xml:space="preserve">   Czechia</t>
-  </si>
-  <si>
     <t>Totals</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Russia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="A35" sqref="A35"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -708,7 +708,7 @@
     </row>
     <row r="4" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>64</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B11" s="6">
         <v>659.43299999999999</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="6">
         <v>21006.786009799998</v>

--- a/datasets/2b - Imports.xlsx
+++ b/datasets/2b - Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB5E617-23BE-447B-8848-5CDA657C1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC202AB-6745-48F1-B3EC-77312D097304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,10 +649,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1600,8 +1600,12 @@
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
       <c r="D13" s="6">
         <v>16.378000400000001</v>
       </c>

--- a/datasets/2b - Imports.xlsx
+++ b/datasets/2b - Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC202AB-6745-48F1-B3EC-77312D097304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CCF4F1-B9D7-432F-8CD9-18411CD4642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,10 +649,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A24" sqref="A24"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
